--- a/Coastal Mins.xlsx
+++ b/Coastal Mins.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malekshafei/Desktop/Louisville/Coastal-IDP-Tracker/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AAB7607-713A-1648-9E1D-3AAB38C43D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E72E9AFD-D23A-DF4D-9B1D-AB5DA89C3003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38160" yWindow="-780" windowWidth="16100" windowHeight="14700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>O'Connor, Dolcie</t>
   </si>
@@ -484,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48B5C48-D10E-874C-961E-B3928A1A2FDC}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -975,6 +975,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>180</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
